--- a/Tablolar/Tablo 3.xlsx
+++ b/Tablolar/Tablo 3.xlsx
@@ -492,19 +492,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1">
         <v>0.4</v>
@@ -521,19 +521,19 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(B4:G4)</f>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1">
         <v>0.1</v>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>

--- a/Tablolar/Tablo 3.xlsx
+++ b/Tablolar/Tablo 3.xlsx
@@ -11,27 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ders Çıktıları /Değerlendirme</t>
-  </si>
-  <si>
-    <t>Ödev1</t>
-  </si>
-  <si>
-    <t>Ödev2</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
-  <si>
-    <t>Quiz4</t>
-  </si>
-  <si>
-    <t>Vize</t>
-  </si>
-  <si>
-    <t>Final</t>
   </si>
   <si>
     <t>Toplam</t>
@@ -429,166 +411,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="8" width="35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1">
+        <f>SUM(B2:A2)</f>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1">
+        <f>SUM(B3:A3)</f>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="1">
+        <f>SUM(B4:A4)</f>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" s="1">
+        <f>SUM(B5:A5)</f>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="1">
-        <f>SUM(B2:G2)</f>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="1">
-        <f>SUM(B3:G3)</f>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SUM(B4:G4)</f>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SUM(B5:G5)</f>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SUM(B6:G6)</f>
+        <f>SUM(B6:A6)</f>
       </c>
     </row>
   </sheetData>

--- a/Tablolar/Tablo 3.xlsx
+++ b/Tablolar/Tablo 3.xlsx
@@ -11,9 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ders Çıktıları /Değerlendirme</t>
+  </si>
+  <si>
+    <t>Ödev1</t>
+  </si>
+  <si>
+    <t>Ödev2</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Quiz4</t>
+  </si>
+  <si>
+    <t>Vize</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
   <si>
     <t>Toplam</t>
@@ -411,58 +429,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="35" style="1" customWidth="1"/>
+    <col min="1" max="8" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(B2:A2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(B3:A3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)</f>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM(B4:A4)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(B4:G4)</f>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(B5:A5)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SUM(B5:G5)</f>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(B6:A6)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(B6:G6)</f>
       </c>
     </row>
   </sheetData>
